--- a/Content/Tractors/Tractor_Infos1.xlsx
+++ b/Content/Tractors/Tractor_Infos1.xlsx
@@ -14,130 +14,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
-  <si>
-    <t>Mahindra Tractors</t>
-  </si>
-  <si>
-    <t>575 DI XP Plus</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>47 HP</t>
-  </si>
-  <si>
-    <t>42 HP</t>
-  </si>
-  <si>
-    <t>8 Forward + 2 Reverse</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
+  <si>
+    <t>Sonalika Tractors</t>
+  </si>
+  <si>
+    <t>Tiger 50</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>52 HP</t>
+  </si>
+  <si>
+    <t>44 HP</t>
+  </si>
+  <si>
+    <t>8 forward + 2 Reverse/16 Forward + 4 Reverse/12 Forward + 3 Reverse/12 Forward + 12 Reverse</t>
   </si>
   <si>
     <t>Oil Immersed Brakes</t>
   </si>
   <si>
-    <t>6 Year</t>
+    <t>5 Year</t>
   </si>
   <si>
     <t>Check Price</t>
   </si>
   <si>
-    <t>Mahindra 575 DI XP Plus Tractor is manufactured by Mahindra &amp; Mahindra, which is a leading tractor. This tractor model from Mahindra fulfils every farming need, which makes it a high-demand farming vehicle in India. Also, the Mahindra 575 DI XP Plus price allows farmers to increase crop production on their farms. It is a trusted Mahindra tractor model because the brand has a high market value in the agriculture sector. This amazing tractor is packed with top-quality farming features for a high performance. Here, you can get all the information about the tractor, like the Mahindra 575 di XP plus specification, price, hp, PTO hp, engine and many more.
-Mahindra 575 DI XP Plus - Overview
-Mahindra 575 DI XP Plus has best-in-class features for agricultural activities, such as tilling or haulage. Manufactured by Mahindra, it comes with new-age technology to work efficiently. As a result, it can give the highest performance in the field while ensuring superb mileage. Moreover, the new-age framers also like this tractor model due to its modern features and eye-catching design. All these features make it one of the most selling tractor models in India. So, let’s begin with the engine capacity of this tractor.
-Mahindra 575 DI XP Plus Tractor - Engine Capacity
-Mahindra 575 is one of the popular tractors of the Mahindra brand and has a remarkable position in the tractor market. Mahindra 575 DI XP Plus is a 47 HP Tractor. The Mahindra 575 DI XP Plus engine capacity is 2979 CC and has 4 Cylinders generating engine rated RPM 2000, which is the best combination for the buyers. Moreover, the tractor model comes with a strong gearbox with 8 forward + 2 reverse gears. Mahindra 575 DI XP Plus pto hp is 42 hp. The powerful engine helps the tractor to perform the toughest farming operations with ease. 
-Mahindra 575 DI XP Plus Tractor - Features 
-The tractor brand has got a lot of appreciation from Indian farmers and buyers due to its advanced and modern features. 
-Mahindra 575 DI XP Plus Tractor has a single (optional double) clutch, which provides smooth and easy functioning. 
-Mahindra 575 DI XP Plus steering type is Dual Acting Power steering / Manual Steering (Optional), from which the tractor gets easy to control and fast response.
-The tractor has oil-immersed multi-disc brakes, which provide high grip and low slippage to protect the farmers from major accidents.  
-It has a hydraulic lifting capacity of 1500 kg. 
-Mahindra 575 DI XP Plus mileage is economical, and it consumes less fuel which saves extra expenses. 
-The 2wd tractor model provides proper comfort and a smooth ride in the farm field. 
-It has a 1960 MM large wheelbase.
-It has accessories like tools, hook, top link, canopy, drawbar hitch, and bumper. 
-The tractor model comes with a 6-year warranty which makes farmer’s trust stronger.    
-It is sensible for implements like cultivator, rotavator, plough, planter and others.
-The Mahindra 575 DI XP Plus is flexible as it can be used in crops like wheat, rice, sugarcane etc.
-Mahindra 575 di XP plus mileage is superb that helps farmers to save a lot of money. 
-There are a lot of tractors, but 575 XP plus price with tremendous features have become more demanding in the Indian market. The Mahindra 575 XP plus price is cost-effective and reliable for every kind of farmer. 
-Mahindra 575 XP Plus Price In India 2024
-The Mahindra 575 XP tractor keeps believing in the improvement of farmers’ resources and their farms. It comes at an economical price in the face of the best tractor and provides relaxation to the farmer's budget. Mahindra 575 XP is a multi-purpose tractor, which manages all farming tasks with ease and performs well. According to an exclusive design, features and specifications, Mahindra 575 di XP plus on-road price is very affordable and pocket-friendly.
-Mahindra 575 di XP price starts from ₹ 6,90,000 and goes up to ₹ 7,27,000 *(Ex-Showroom Price), which is budget-friendly for Indian farmers. Moreover, Mahindra 575 di XP plus on-road price includes various taxes like road tax, RTO charges, and many more; hence, it varies according to the state.
-The company set the 575 XP plus price affordably so that every farmer can easily buy it. It is designed for the marginal farmer's sector to fulfil their needs. This is the main reason the company fixed the Mahindra 575 di XP plus price according to their budget. The Mahindra XP plus 575 is a perfect tractor that solves every farming problem in India. At Tractor Junction, Mahindra 575 XP plus price is available. So, don't go here and there. Just log in to Tractor Junction and find out the Mahindra 575 di XP price in your range. 
-Why Tractor Junction for Mahindra 575 DI XP Plus?
-Mahindra 575 XP plus is a classy tractor available at Tractor Junction with complete information. Here, we provide detailed information about the 575 XP plus with price and mileage. Along with this, you can easily get the Mahindra 575 XP price list 2024. It is an authentic platform to get the true detail and Mahindra 575 di XP plus price in India. If you have any further queries, you can also contact us. Tractor Junction customer care will help you out.  You can also buy a used Mahindra 575 di XP plus hp tractor from Tractor Junction with complete documents and details of the seller. 
-We hope you got all the detailed information about Mahindra 575 DI XP Plus price, Mahindra 575 di XP specification, engine capacity etc. for more, stay tuned with TractorJunction.com.
-The above post is created by experts who work to provide you with everything that might help you in choosing your next tractor. First, call Us Now to know more about this tractor. Then, visit the website to compare it with other tractors and choose the best. Hurry up and get the super deal on Mahindra 575 di XP plus on-road price.
-Get latest Mahindra 575 DI XP Plus on road price Jan 15, 2024.</t>
-  </si>
-  <si>
-    <t>2979 CC</t>
+    <t>Welcome Buyers, this post is about Sonalika DI 50 Tiger tractor this tractor is manufactured by SonalikaTractor Manufacturer. This post contains all the information about the tractor like Sonalika DI 50 Tiger on road price, Engine Specifications, and many more.
+Sonalika DI 50 Tiger Tractor Engine Capacity
+Sonalika DI 50 Tiger engine capacity is 3065 cc and has 3 cylinders generating 2000 engine rated RPM and Sonalika DI 50 Tiger tractor hp is 52 hp. Sonalika di 50 Tiger pto hp is superb. This combination is very nice for the buyers.
+How is Sonalika DI 50 Tiger best for you?
+Sonalika DI 50 Tiger has 2WD : Single / Dual And  4WD : Double clutch, which provides smooth and easy functioning. Sonalika DI 50 Tiger steering type hydrostatic Steering from that tractor get easy to control and fast response. The tractor has Multi Disc Oil Immersed Brakes which provide high grip and low slippage. It has a hydraulic lifting capacity of 2000 kg and Sonalika DI 50 Tiger mileage is economical in every field. Sonalika DI 50 Tiger has 12 Forward + 12 Reverse gear box.
+Sonalika DI 50 Tiger tractor price 
+Sonalika di 50 Tiger on road price is 7.59-7.90 Lakh*(Ex-Showroom Price). Sonalika DI 50 Tiger price 2022 is affordable and appropriate for the farmers.  
+So, this is all about Sonalika DI 50 Tiger price list, Sonalika DI 50 Tiger review and specifications stay tuned with TractorJunction. At TractorJuncton, you can also find Sonalika 50 Tiger price in Punjab, Haryana, UP, and many more. 
+The above post is created by experts who work to provide you with everything that might help you in choosing your next tractor. Call Us Now to more about this tractor, visit the website to compare it with other tractors, and choose the best.
+Get latest Sonalika Tiger 50 on road price Jan 18, 2024.</t>
+  </si>
+  <si>
+    <t>3065 CC</t>
   </si>
   <si>
     <t>2000 RPM</t>
   </si>
   <si>
-    <t>Water Cooled</t>
-  </si>
-  <si>
-    <t>3 stage oil bath type with Pre Cleaner</t>
-  </si>
-  <si>
-    <t>Inline</t>
-  </si>
-  <si>
-    <t>192 NM</t>
-  </si>
-  <si>
-    <t>Partial Constant Mesh</t>
-  </si>
-  <si>
-    <t>Single / Dual clutch</t>
-  </si>
-  <si>
-    <t>3.1 - 31.3 kmph</t>
-  </si>
-  <si>
-    <t>4.3 - 12.5 kmph</t>
-  </si>
-  <si>
-    <t>Dual Acting Power steering / Manual Steering (Optional)</t>
-  </si>
-  <si>
-    <t>Single Drop Arm</t>
-  </si>
-  <si>
-    <t>6 Spline</t>
-  </si>
-  <si>
-    <t>540 @ 1890</t>
-  </si>
-  <si>
-    <t>1890 KG</t>
-  </si>
-  <si>
-    <t>1960 MM</t>
-  </si>
-  <si>
-    <t>1500 Kg</t>
-  </si>
-  <si>
-    <t>High precision, CAT-2</t>
+    <t>Coolant Cooled</t>
+  </si>
+  <si>
+    <t>Dry Type</t>
+  </si>
+  <si>
+    <t>210 NM</t>
+  </si>
+  <si>
+    <t>Constant Mesh with Side Shifter</t>
+  </si>
+  <si>
+    <t>Single/Dual/Independent</t>
+  </si>
+  <si>
+    <t>39 kmph</t>
+  </si>
+  <si>
+    <t>Power Steering</t>
+  </si>
+  <si>
+    <t>Reverse PTO</t>
+  </si>
+  <si>
+    <t>540</t>
+  </si>
+  <si>
+    <t>2000 Kg</t>
+  </si>
+  <si>
+    <t>1SA/1DA*</t>
   </si>
   <si>
     <t>2 WD</t>
   </si>
   <si>
-    <t>6.00 x 16</t>
-  </si>
-  <si>
-    <t>14.9 x 28</t>
-  </si>
-  <si>
-    <t>Hook, Drawbar, Hood, Bumper Etc.</t>
+    <t>7.50 x 16</t>
+  </si>
+  <si>
+    <t>14.9 x 28 / 16.9 x 28</t>
+  </si>
+  <si>
+    <t>Hood, Bumper, Top link , Tool, Hook</t>
+  </si>
+  <si>
+    <t>Forward - Reverse Shuttleshift Gear , Head Lamp with integrated LED DRL, Work Lamp &amp; Chrome Bezel , Fender Lamp with LED DRL , Combination Switch, Lever Type Steering Column mounted with illumination, Instrument Cluster with integrated Digital Hour Meter, Service Reminder with Buzzer, Digital Clock, Air Clogging Buzzer &amp; Chrome garnish, Single piece front hood with Gas Strut, Flat Platform for Operator, Deluxe Operator Seat with Inclined Plane 4 Way Adjustment Adjustable Front Axle, 4WD*, Radiator with Front Trash Guard*, Adjustable Heavy Duty Tow Hook, Front Weight Carrier</t>
   </si>
   <si>
     <t>Launched</t>
@@ -230,7 +199,7 @@
     <t>Wheel_Base</t>
   </si>
   <si>
-    <t>Overall_Base</t>
+    <t>Overall_Length</t>
   </si>
   <si>
     <t>Overall_Width</t>
@@ -630,130 +599,130 @@
   <sheetData>
     <row r="1" spans="1:42">
       <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:42">
@@ -799,68 +768,56 @@
       <c r="N2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>14</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>16</v>
-      </c>
-      <c r="R2" t="s">
-        <v>17</v>
       </c>
       <c r="S2" t="s">
         <v>5</v>
       </c>
       <c r="V2" t="s">
+        <v>17</v>
+      </c>
+      <c r="X2" t="s">
         <v>18</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" t="s">
         <v>19</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AA2" t="s">
         <v>20</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AH2" t="s">
         <v>21</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AI2" t="s">
         <v>22</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AJ2" t="s">
         <v>23</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AK2" t="s">
         <v>24</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AL2" t="s">
         <v>25</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AM2" t="s">
         <v>26</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AN2" t="s">
         <v>27</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>31</v>
       </c>
       <c r="AO2" t="s">
         <v>7</v>
       </c>
       <c r="AP2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
